--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr5_Np1_Nj1.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr5_Np1_Nj1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Row</t>
   </si>
@@ -106,6 +106,72 @@
   </si>
   <si>
     <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -181,7 +247,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
@@ -190,7 +256,7 @@
     <col min="4" max="4" width="15.24609375" customWidth="true"/>
     <col min="5" max="5" width="16.24609375" customWidth="true"/>
     <col min="6" max="6" width="16.24609375" customWidth="true"/>
-    <col min="7" max="7" width="14.64453125" customWidth="true"/>
+    <col min="7" max="7" width="15.24609375" customWidth="true"/>
     <col min="8" max="8" width="16.24609375" customWidth="true"/>
     <col min="9" max="9" width="16.24609375" customWidth="true"/>
     <col min="10" max="10" width="15.24609375" customWidth="true"/>
@@ -199,45 +265,45 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B2" s="0">
-        <v>0.3282403847654638</v>
+        <v>0.3279201598023983</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -269,317 +335,352 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B3" s="0">
-        <v>0.33469731436302308</v>
+        <v>0.33441168795657283</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>0.0088928773599714593</v>
+        <v>0.0089272510896734117</v>
       </c>
       <c r="E3" s="0">
-        <v>0.00070636520141945395</v>
+        <v>0.00071387820218411107</v>
       </c>
       <c r="F3" s="0">
-        <v>0.00048850920945218707</v>
+        <v>0.00048764283416539848</v>
       </c>
       <c r="G3" s="0">
-        <v>-0.0026604920701547444</v>
+        <v>-0.002660884198225751</v>
       </c>
       <c r="H3" s="0">
-        <v>0.00019234585319184106</v>
+        <v>0.00019197806324242991</v>
       </c>
       <c r="I3" s="0">
-        <v>-0.00081970026139750827</v>
+        <v>-0.00082536136721358109</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>-0.00034297569492341973</v>
+        <v>-0.00034297646965147921</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B4" s="0">
-        <v>0.30251261546908786</v>
+        <v>0.30065639532022886</v>
       </c>
       <c r="C4" s="0">
-        <v>-0.019927013821341606</v>
+        <v>-0.021513988676355476</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>-0.00074604873741813287</v>
+        <v>-0.00074170529652923471</v>
       </c>
       <c r="F4" s="0">
-        <v>-0.00033437733198337483</v>
+        <v>-0.00032963893036643856</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>9.9151283992373617e-05</v>
+        <v>9.8832279269579526e-05</v>
       </c>
       <c r="I4" s="0">
-        <v>-0.0064278323309205458</v>
+        <v>-0.0064402866600931068</v>
       </c>
       <c r="J4" s="0">
-        <v>-0.0047442455754243447</v>
+        <v>-0.0047241776373480402</v>
       </c>
       <c r="K4" s="0">
-        <v>-0.00010433238083956686</v>
+        <v>-0.00010432771492124848</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B5" s="0">
-        <v>0.33107261407364458</v>
+        <v>0.33074757442293617</v>
       </c>
       <c r="C5" s="0">
-        <v>0.028528948525132318</v>
+        <v>0.030163688318879452</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.0026748835029032202</v>
+        <v>-0.0027534788477973798</v>
       </c>
       <c r="E5" s="0">
-        <v>0.00015852100596086693</v>
+        <v>0.00014179679404773476</v>
       </c>
       <c r="F5" s="0">
-        <v>-0.0018066522418640066</v>
+        <v>-0.0018265860615694289</v>
       </c>
       <c r="G5" s="0">
-        <v>0.0082952384927300338</v>
+        <v>0.0083034947459849403</v>
       </c>
       <c r="H5" s="0">
-        <v>-0.00028764090717842296</v>
+        <v>-0.0002893229812285304</v>
       </c>
       <c r="I5" s="0">
-        <v>-0.0039765732162429027</v>
+        <v>-0.0039714502677355877</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>0.00032304044892206285</v>
+        <v>0.00032303740212608067</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B6" s="0">
-        <v>0.61837918497684841</v>
+        <v>0.62154412230444911</v>
       </c>
       <c r="C6" s="0">
-        <v>0.29883347372060187</v>
+        <v>0.30278688403108878</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>0.0015791519914841743</v>
+        <v>0.0015791586783606452</v>
       </c>
       <c r="F6" s="0">
-        <v>-0.00035927461991058085</v>
+        <v>-0.00036005244882819014</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>-0.00022559940504660758</v>
+        <v>-0.0002158529631902047</v>
       </c>
       <c r="I6" s="0">
-        <v>-0.019753418335227226</v>
+        <v>-0.020225771048228886</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>0.0072322375513022008</v>
+        <v>0.0072321816323107635</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B7" s="0">
-        <v>0.56431782420118581</v>
+        <v>0.56623571651058924</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.065588827721354631</v>
+        <v>-0.066675875823684436</v>
       </c>
       <c r="E7" s="0">
-        <v>0.0014681166157243222</v>
+        <v>0.001415187247797049</v>
       </c>
       <c r="F7" s="0">
-        <v>0.0025878883504390185</v>
+        <v>0.0025116691998255999</v>
       </c>
       <c r="G7" s="0">
-        <v>0.0028742254184937542</v>
+        <v>0.0028499957450106059</v>
       </c>
       <c r="H7" s="0">
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>0.0023749396001445759</v>
+        <v>0.0023682929491217124</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>0.0022222969608903798</v>
+        <v>0.0022223248880696156</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B8" s="0">
-        <v>0.57624074604355413</v>
+        <v>0.57653098574847494</v>
       </c>
       <c r="C8" s="0">
-        <v>0.055411944796842028</v>
+        <v>0.053233322239463775</v>
       </c>
       <c r="D8" s="0">
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>-8.5749023663343158e-05</v>
+        <v>-8.4980328244576163e-05</v>
       </c>
       <c r="F8" s="0">
-        <v>-0.019396860668304605</v>
+        <v>-0.019389626474281857</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
       </c>
       <c r="H8" s="0">
-        <v>-0.00038118507534320138</v>
+        <v>-0.00038218078025107222</v>
       </c>
       <c r="I8" s="0">
-        <v>-0.02999042820286818</v>
+        <v>-0.029446529999754962</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
       </c>
       <c r="K8" s="0">
-        <v>0.0063652000157056188</v>
+        <v>0.0063652645809544328</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="B9" s="0">
-        <v>0.15963779941914918</v>
+        <v>0.15798171282928256</v>
       </c>
       <c r="C9" s="0">
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>-0.29228522705880638</v>
+        <v>-0.29349848694689312</v>
       </c>
       <c r="E9" s="0">
-        <v>0.022011504853906273</v>
+        <v>0.022062741592643889</v>
       </c>
       <c r="F9" s="0">
-        <v>-0.14627191023623357</v>
+        <v>-0.14702420023153126</v>
       </c>
       <c r="G9" s="0">
-        <v>-0.010760281820803571</v>
+        <v>-0.010776183326960398</v>
       </c>
       <c r="H9" s="0">
-        <v>-0.002643971055087855</v>
+        <v>-0.0026554165464668772</v>
       </c>
       <c r="I9" s="0">
-        <v>0.011511226780319853</v>
+        <v>0.011506545550277218</v>
       </c>
       <c r="J9" s="0">
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>0.001835711912300253</v>
+        <v>0.0018357269897381068</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="B10" s="0">
-        <v>0.23615721036641327</v>
+        <v>0.23841639019775171</v>
       </c>
       <c r="C10" s="0">
-        <v>0.068713527887690681</v>
+        <v>0.072865905622545801</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>0.0071796182047929461</v>
+        <v>0.0071934780687625934</v>
       </c>
       <c r="F10" s="0">
-        <v>-0.0061347594765474274</v>
+        <v>-0.0061687838023521697</v>
       </c>
       <c r="G10" s="0">
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>0.00038660842641595488</v>
+        <v>0.00038667635798949332</v>
       </c>
       <c r="I10" s="0">
-        <v>0.024212793358691781</v>
+        <v>0.023961752075292053</v>
       </c>
       <c r="J10" s="0">
-        <v>-0.009956125546085548</v>
+        <v>-0.0099222347714324616</v>
       </c>
       <c r="K10" s="0">
-        <v>-0.0078822519076943154</v>
+        <v>-0.0078821161823361685</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="B11" s="0">
-        <v>0.45079841981737595</v>
+        <v>0.45492329019592515</v>
       </c>
       <c r="C11" s="0">
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>0.23775060761773942</v>
+        <v>0.23830223400028822</v>
       </c>
       <c r="E11" s="0">
-        <v>-0.015663234152841429</v>
+        <v>-0.015691901877144736</v>
       </c>
       <c r="F11" s="0">
-        <v>-0.0084352274246739141</v>
+        <v>-0.0071680729411626315</v>
       </c>
       <c r="G11" s="0">
-        <v>-0.0088900482797791038</v>
+        <v>-0.0089006502757682932</v>
       </c>
       <c r="H11" s="0">
-        <v>-0.001714116730023826</v>
+        <v>-0.001686690263732314</v>
       </c>
       <c r="I11" s="0">
-        <v>0.070095953941996622</v>
+        <v>0.070154700484602803</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
       </c>
       <c r="K11" s="0">
-        <v>-0.058502725521455107</v>
+        <v>-0.058502719128909614</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="0">
+        <v>0.16777118928236695</v>
+      </c>
+      <c r="C12" s="0">
+        <v>-0.23284660315609593</v>
+      </c>
+      <c r="D12" s="0">
+        <v>0</v>
+      </c>
+      <c r="E12" s="0">
+        <v>0.0036454318866415703</v>
+      </c>
+      <c r="F12" s="0">
+        <v>-0.00057003276132082501</v>
+      </c>
+      <c r="G12" s="0">
+        <v>0</v>
+      </c>
+      <c r="H12" s="0">
+        <v>-0.00038230642907656812</v>
+      </c>
+      <c r="I12" s="0">
+        <v>-0.038504483187889411</v>
+      </c>
+      <c r="J12" s="0">
+        <v>0</v>
+      </c>
+      <c r="K12" s="0">
+        <v>-0.018494107265817017</v>
       </c>
     </row>
   </sheetData>

--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr5_Np1_Nj1.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr5_Np1_Nj1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>Row</t>
   </si>
@@ -172,6 +172,147 @@
   </si>
   <si>
     <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -247,7 +388,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K14"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
@@ -256,7 +397,7 @@
     <col min="4" max="4" width="15.24609375" customWidth="true"/>
     <col min="5" max="5" width="16.24609375" customWidth="true"/>
     <col min="6" max="6" width="16.24609375" customWidth="true"/>
-    <col min="7" max="7" width="15.24609375" customWidth="true"/>
+    <col min="7" max="7" width="16.24609375" customWidth="true"/>
     <col min="8" max="8" width="16.24609375" customWidth="true"/>
     <col min="9" max="9" width="16.24609375" customWidth="true"/>
     <col min="10" max="10" width="15.24609375" customWidth="true"/>
@@ -265,45 +406,45 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="B2" s="0">
-        <v>0.3279201598023983</v>
+        <v>0.32778285478675873</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -335,352 +476,422 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="B3" s="0">
-        <v>0.33441168795657283</v>
+        <v>0.33435432345731364</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>0.0089272510896734117</v>
+        <v>0.0090273612509583056</v>
       </c>
       <c r="E3" s="0">
-        <v>0.00071387820218411107</v>
+        <v>0.00070993671189064679</v>
       </c>
       <c r="F3" s="0">
-        <v>0.00048764283416539848</v>
+        <v>0.00048737523809692701</v>
       </c>
       <c r="G3" s="0">
-        <v>-0.002660884198225751</v>
+        <v>-0.0026662722099235012</v>
       </c>
       <c r="H3" s="0">
-        <v>0.00019197806324242991</v>
+        <v>0.00019215880888939961</v>
       </c>
       <c r="I3" s="0">
-        <v>-0.00082536136721358109</v>
+        <v>-0.00083611265723197996</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>-0.00034297646965147921</v>
+        <v>-0.00034297847212488852</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="B4" s="0">
-        <v>0.30065639532022886</v>
+        <v>0.30041869247103464</v>
       </c>
       <c r="C4" s="0">
-        <v>-0.021513988676355476</v>
+        <v>-0.021649970205029585</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>-0.00074170529652923471</v>
+        <v>-0.00074193799276049634</v>
       </c>
       <c r="F4" s="0">
-        <v>-0.00032963893036643856</v>
+        <v>-0.00032717129660754876</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>9.8832279269579526e-05</v>
+        <v>0.00010000886872036129</v>
       </c>
       <c r="I4" s="0">
-        <v>-0.0064402866600931068</v>
+        <v>-0.006513310742710254</v>
       </c>
       <c r="J4" s="0">
-        <v>-0.0047241776373480402</v>
+        <v>-0.0046988910148863796</v>
       </c>
       <c r="K4" s="0">
-        <v>-0.00010432771492124848</v>
+        <v>-0.00010435860300506139</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="B5" s="0">
-        <v>0.33074757442293617</v>
+        <v>0.32877253520994842</v>
       </c>
       <c r="C5" s="0">
-        <v>0.030163688318879452</v>
+        <v>0.028254575311775654</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.0027534788477973798</v>
+        <v>-0.0026874175779925875</v>
       </c>
       <c r="E5" s="0">
-        <v>0.00014179679404773476</v>
+        <v>0.0001686695087764192</v>
       </c>
       <c r="F5" s="0">
-        <v>-0.0018265860615694289</v>
+        <v>-0.0018025918492114634</v>
       </c>
       <c r="G5" s="0">
-        <v>0.0083034947459849403</v>
+        <v>0.0083480883103450153</v>
       </c>
       <c r="H5" s="0">
-        <v>-0.0002893229812285304</v>
+        <v>-0.00028515721725178418</v>
       </c>
       <c r="I5" s="0">
-        <v>-0.0039714502677355877</v>
+        <v>-0.0039653837555864444</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>0.00032303740212608067</v>
+        <v>0.00032306000805898405</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="B6" s="0">
-        <v>0.62154412230444911</v>
+        <v>0.62291827328018834</v>
       </c>
       <c r="C6" s="0">
-        <v>0.30278688403108878</v>
+        <v>0.30643221532152404</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>0.0015791586783606452</v>
+        <v>0.0015789382553118966</v>
       </c>
       <c r="F6" s="0">
-        <v>-0.00036005244882819014</v>
+        <v>-0.00036187868600109902</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>-0.0002158529631902047</v>
+        <v>-0.00020081816147740565</v>
       </c>
       <c r="I6" s="0">
-        <v>-0.020225771048228886</v>
+        <v>-0.020534892550922751</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>0.0072321816323107635</v>
+        <v>0.0072321738918051381</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="B7" s="0">
-        <v>0.56623571651058924</v>
+        <v>0.56886031662688574</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.066675875823684436</v>
+        <v>-0.065322694823171323</v>
       </c>
       <c r="E7" s="0">
-        <v>0.001415187247797049</v>
+        <v>0.0013424955683393742</v>
       </c>
       <c r="F7" s="0">
-        <v>0.0025116691998255999</v>
+        <v>0.0024448382584722999</v>
       </c>
       <c r="G7" s="0">
-        <v>0.0028499957450106059</v>
+        <v>0.0028749634427307287</v>
       </c>
       <c r="H7" s="0">
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>0.0023682929491217124</v>
+        <v>0.0023801443869590228</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>0.0022223248880696156</v>
+        <v>0.0022222965133673611</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="B8" s="0">
-        <v>0.57653098574847494</v>
+        <v>0.56496445403898843</v>
       </c>
       <c r="C8" s="0">
-        <v>0.053233322239463775</v>
+        <v>0.038541944167515468</v>
       </c>
       <c r="D8" s="0">
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>-8.4980328244576163e-05</v>
+        <v>-8.4134124794688029e-05</v>
       </c>
       <c r="F8" s="0">
-        <v>-0.019389626474281857</v>
+        <v>-0.019366090539076713</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
       </c>
       <c r="H8" s="0">
-        <v>-0.00038218078025107222</v>
+        <v>-0.00037415106760968345</v>
       </c>
       <c r="I8" s="0">
-        <v>-0.029446529999754962</v>
+        <v>-0.02897880000883836</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
       </c>
       <c r="K8" s="0">
-        <v>0.0063652645809544328</v>
+        <v>0.0063653689849066941</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="B9" s="0">
-        <v>0.15798171282928256</v>
+        <v>0.14914813404639987</v>
       </c>
       <c r="C9" s="0">
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>-0.29349848694689312</v>
+        <v>-0.29052117157682872</v>
       </c>
       <c r="E9" s="0">
-        <v>0.022062741592643889</v>
+        <v>0.022173595297693065</v>
       </c>
       <c r="F9" s="0">
-        <v>-0.14702420023153126</v>
+        <v>-0.14746416527950873</v>
       </c>
       <c r="G9" s="0">
-        <v>-0.010776183326960398</v>
+        <v>-0.010724233403621547</v>
       </c>
       <c r="H9" s="0">
-        <v>-0.0026554165464668772</v>
+        <v>-0.0026355441049338993</v>
       </c>
       <c r="I9" s="0">
-        <v>0.011506545550277218</v>
+        <v>0.011519555270647278</v>
       </c>
       <c r="J9" s="0">
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>0.0018357269897381068</v>
+        <v>0.0018356438039639489</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="B10" s="0">
-        <v>0.23841639019775171</v>
+        <v>0.22758076456973969</v>
       </c>
       <c r="C10" s="0">
-        <v>0.072865905622545801</v>
+        <v>0.070197326105180521</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>0.0071934780687625934</v>
+        <v>0.007158855380891423</v>
       </c>
       <c r="F10" s="0">
-        <v>-0.0061687838023521697</v>
+        <v>-0.0060018564795651357</v>
       </c>
       <c r="G10" s="0">
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>0.00038667635798949332</v>
+        <v>0.000391271637914114</v>
       </c>
       <c r="I10" s="0">
-        <v>0.023961752075292053</v>
+        <v>0.024286379847416405</v>
       </c>
       <c r="J10" s="0">
-        <v>-0.0099222347714324616</v>
+        <v>-0.0097171859268183024</v>
       </c>
       <c r="K10" s="0">
-        <v>-0.0078821161823361685</v>
+        <v>-0.007882160041679187</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="B11" s="0">
-        <v>0.45492329019592515</v>
+        <v>0.45207586466115779</v>
       </c>
       <c r="C11" s="0">
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>0.23830223400028822</v>
+        <v>0.24284365976596756</v>
       </c>
       <c r="E11" s="0">
-        <v>-0.015691901877144736</v>
+        <v>-0.015646586925135385</v>
       </c>
       <c r="F11" s="0">
-        <v>-0.0071680729411626315</v>
+        <v>-0.0050849845433096445</v>
       </c>
       <c r="G11" s="0">
-        <v>-0.0089006502757682932</v>
+        <v>-0.0087758667347993327</v>
       </c>
       <c r="H11" s="0">
-        <v>-0.001686690263732314</v>
+        <v>-0.0016241530874921781</v>
       </c>
       <c r="I11" s="0">
-        <v>0.070154700484602803</v>
+        <v>0.071285825018869348</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
       </c>
       <c r="K11" s="0">
-        <v>-0.058502719128909614</v>
+        <v>-0.058502793402682274</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="B12" s="0">
-        <v>0.16777118928236695</v>
+        <v>0.15163397984412116</v>
       </c>
       <c r="C12" s="0">
-        <v>-0.23284660315609593</v>
+        <v>-0.26765446595327574</v>
       </c>
       <c r="D12" s="0">
         <v>0</v>
       </c>
       <c r="E12" s="0">
-        <v>0.0036454318866415703</v>
+        <v>0.0034910470493904385</v>
       </c>
       <c r="F12" s="0">
-        <v>-0.00057003276132082501</v>
+        <v>-0.030456860838470882</v>
       </c>
       <c r="G12" s="0">
         <v>0</v>
       </c>
       <c r="H12" s="0">
-        <v>-0.00038230642907656812</v>
+        <v>-0.014138433594201107</v>
       </c>
       <c r="I12" s="0">
-        <v>-0.038504483187889411</v>
+        <v>0.024878923711080188</v>
       </c>
       <c r="J12" s="0">
         <v>0</v>
       </c>
       <c r="K12" s="0">
-        <v>-0.018494107265817017</v>
+        <v>-0.0165620951915596</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="0">
+        <v>0.38979933797884392</v>
+      </c>
+      <c r="C13" s="0">
+        <v>0</v>
+      </c>
+      <c r="D13" s="0">
+        <v>-0.23740145603662471</v>
+      </c>
+      <c r="E13" s="0">
+        <v>0.064706140152233901</v>
+      </c>
+      <c r="F13" s="0">
+        <v>0.1300921730341191</v>
+      </c>
+      <c r="G13" s="0">
+        <v>-0.00098011220605401781</v>
+      </c>
+      <c r="H13" s="0">
+        <v>0.0036706037923070738</v>
+      </c>
+      <c r="I13" s="0">
+        <v>0.0064970918028082495</v>
+      </c>
+      <c r="J13" s="0">
+        <v>0</v>
+      </c>
+      <c r="K13" s="0">
+        <v>0.27158091759593317</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="0">
+        <v>0.32831582297452799</v>
+      </c>
+      <c r="C14" s="0">
+        <v>0.045441504166503596</v>
+      </c>
+      <c r="D14" s="0">
+        <v>0</v>
+      </c>
+      <c r="E14" s="0">
+        <v>-0.026141210032716938</v>
+      </c>
+      <c r="F14" s="0">
+        <v>-0.018390646685459793</v>
+      </c>
+      <c r="G14" s="0">
+        <v>0</v>
+      </c>
+      <c r="H14" s="0">
+        <v>-0.0034111331405863154</v>
+      </c>
+      <c r="I14" s="0">
+        <v>-0.058495914498235366</v>
+      </c>
+      <c r="J14" s="0">
+        <v>0</v>
+      </c>
+      <c r="K14" s="0">
+        <v>-0.00048611481382110355</v>
       </c>
     </row>
   </sheetData>

--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr5_Np1_Nj1.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr5_Np1_Nj1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
   <si>
     <t>Row</t>
   </si>
@@ -313,6 +313,81 @@
   </si>
   <si>
     <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -388,7 +463,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K15"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
@@ -406,42 +481,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="B2" s="0">
         <v>0.32778285478675873</v>
@@ -476,7 +551,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="B3" s="0">
         <v>0.33435432345731364</v>
@@ -511,7 +586,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="B4" s="0">
         <v>0.30041869247103464</v>
@@ -546,7 +621,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="B5" s="0">
         <v>0.32877253520994842</v>
@@ -581,7 +656,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="B6" s="0">
         <v>0.62291827328018834</v>
@@ -616,7 +691,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="B7" s="0">
         <v>0.56886031662688574</v>
@@ -651,7 +726,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="B8" s="0">
         <v>0.56496445403898843</v>
@@ -686,7 +761,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="B9" s="0">
         <v>0.14914813404639987</v>
@@ -721,7 +796,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="B10" s="0">
         <v>0.22758076456973969</v>
@@ -756,7 +831,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="B11" s="0">
         <v>0.45207586466115779</v>
@@ -791,7 +866,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="B12" s="0">
         <v>0.15163397984412116</v>
@@ -826,7 +901,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="B13" s="0">
         <v>0.38979933797884392</v>
@@ -861,37 +936,72 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B14" s="0">
-        <v>0.32831582297452799</v>
+        <v>0.36161937091960272</v>
       </c>
       <c r="C14" s="0">
-        <v>0.045441504166503596</v>
+        <v>0.068890904381879906</v>
       </c>
       <c r="D14" s="0">
         <v>0</v>
       </c>
       <c r="E14" s="0">
-        <v>-0.026141210032716938</v>
+        <v>-0.026129263950068114</v>
       </c>
       <c r="F14" s="0">
-        <v>-0.018390646685459793</v>
+        <v>-0.023548035119554989</v>
       </c>
       <c r="G14" s="0">
         <v>0</v>
       </c>
       <c r="H14" s="0">
-        <v>-0.0034111331405863154</v>
+        <v>-0.0061304532532905614</v>
       </c>
       <c r="I14" s="0">
-        <v>-0.058495914498235366</v>
+        <v>-0.027491510930940148</v>
       </c>
       <c r="J14" s="0">
         <v>0</v>
       </c>
       <c r="K14" s="0">
-        <v>-0.00048611481382110355</v>
+        <v>-0.013771608187267304</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" s="0">
+        <v>-0.17825619833744277</v>
+      </c>
+      <c r="C15" s="0">
+        <v>0</v>
+      </c>
+      <c r="D15" s="0">
+        <v>-0.32193503281813113</v>
+      </c>
+      <c r="E15" s="0">
+        <v>-0.049751938943198772</v>
+      </c>
+      <c r="F15" s="0">
+        <v>0.030420806730080178</v>
+      </c>
+      <c r="G15" s="0">
+        <v>0.0063074936562765842</v>
+      </c>
+      <c r="H15" s="0">
+        <v>0</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>0</v>
+      </c>
+      <c r="K15" s="0">
+        <v>-0.20491689788207235</v>
       </c>
     </row>
   </sheetData>
